--- a/medicine/Mort/Cimetière_nouveau_de_Villeurbanne/Cimetière_nouveau_de_Villeurbanne.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_de_Villeurbanne/Cimetière_nouveau_de_Villeurbanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Villeurbanne</t>
+          <t>Cimetière_nouveau_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière nouveau de Villeurbanne est le plus récent des deux cimetières de Villeurbanne en France. Il est situé le long du boulevard Laurent Bonnevay.
  Portail de la métropole de Lyon   Portail sur la mort                    </t>
